--- a/biology/Botanique/Jardin_du_Cloître/Jardin_du_Cloître.xlsx
+++ b/biology/Botanique/Jardin_du_Cloître/Jardin_du_Cloître.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_du_Clo%C3%AEtre</t>
+          <t>Jardin_du_Cloître</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du Cloître est un espace vert du 14e arrondissement de Paris, dans le quartier de Plaisance.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_du_Clo%C3%AEtre</t>
+          <t>Jardin_du_Cloître</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se situe entre la place de Séoul et l’église Notre-Dame-du-Travail[1].
-Le site est accessible par le 30, rue Guilleminot. Il est ouvert 24 heures sur 24[1].
-Il est desservi par la ligne 13 à la station Pernety[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se situe entre la place de Séoul et l’église Notre-Dame-du-Travail.
+Le site est accessible par le 30, rue Guilleminot. Il est ouvert 24 heures sur 24.
+Il est desservi par la ligne 13 à la station Pernety.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_du_Clo%C3%AEtre</t>
+          <t>Jardin_du_Cloître</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1987.
-Planté de massifs d'arbustes et d'un noyer, il possède le label ÉcoJardin[1].
-Il est accessible aux personnes à mobilité réduite sur certaines zones[1].
+Planté de massifs d'arbustes et d'un noyer, il possède le label ÉcoJardin.
+Il est accessible aux personnes à mobilité réduite sur certaines zones.
 </t>
         </is>
       </c>
